--- a/biology/Botanique/Téton_de_Vénus_(tomate)/Téton_de_Vénus_(tomate).xlsx
+++ b/biology/Botanique/Téton_de_Vénus_(tomate)/Téton_de_Vénus_(tomate).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>T%C3%A9ton_de_V%C3%A9nus_(tomate)</t>
+          <t>Téton_de_Vénus_(tomate)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Téton de Vénus est le nom d'une variété de tomates dû à sa forme terminée en pointe. Qui rappelle, donc, la forme d'un téton. Il en existe de différentes couleurs (rouge ou jaune...)
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>T%C3%A9ton_de_V%C3%A9nus_(tomate)</t>
+          <t>Téton_de_Vénus_(tomate)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Origine et caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La tomate Téton de Vénus est originaire d'Italie. Un pied peut atteindre 160, voire 200 cm, de hauteur. Cette variété arrive à maturité après 75 jours de maturité environ. La forme de la tomate rappelle un sein galbée à la pointe dressée, d'où le nom[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La tomate Téton de Vénus est originaire d'Italie. Un pied peut atteindre 160, voire 200 cm, de hauteur. Cette variété arrive à maturité après 75 jours de maturité environ. La forme de la tomate rappelle un sein galbée à la pointe dressée, d'où le nom.
 Chaque tomate pèse entre 200 et 300 g et se présentent en grappe.
 </t>
         </is>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>T%C3%A9ton_de_V%C3%A9nus_(tomate)</t>
+          <t>Téton_de_Vénus_(tomate)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Croyances phytomythologiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aphrodite/Vénus est la déesse qui s'est vue reliée à un grand nombre de noms vernaculaires dont la tomate Téton de Vénus[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aphrodite/Vénus est la déesse qui s'est vue reliée à un grand nombre de noms vernaculaires dont la tomate Téton de Vénus.
 </t>
         </is>
       </c>
